--- a/biology/Botanique/Forêt_de_Villecartier/Forêt_de_Villecartier.xlsx
+++ b/biology/Botanique/Forêt_de_Villecartier/Forêt_de_Villecartier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Villecartier</t>
+          <t>Forêt_de_Villecartier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt de Villecartier est une forêt domaniale située en Ille-et-Vilaine sur la commune de Bazouges-la-Pérouse. La forêt est constituée en grande partie de hêtres et de chênes. Elle compte 127 parcelles pour une surface totale de 978,56 ha. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Villecartier</t>
+          <t>Forêt_de_Villecartier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La forêt de Villecartier est une ancienne forêt royale. Autrefois dans la forêt habitaient plusieurs sortes d'artisans : des charbonniers, des sabotiers, des fagotiers, ainsi que des scieurs.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Villecartier</t>
+          <t>Forêt_de_Villecartier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Loisirs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forêt de Villecartier dispose d'une base de loisirs Récrénature[3]. Plusieurs activités sont proposées aussi bien aux enfants qu'aux adultes: le Parc des Grands Chênes (accrobranche), le Port Miniature (balade sur l'étang en bateau électrique), des sentiers de randonnée, des aires de jeux pour enfants, une aire de pique-nique, une halle couverte, etc. En été, des balades nature sont proposées.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt de Villecartier dispose d'une base de loisirs Récrénature. Plusieurs activités sont proposées aussi bien aux enfants qu'aux adultes: le Parc des Grands Chênes (accrobranche), le Port Miniature (balade sur l'étang en bateau électrique), des sentiers de randonnée, des aires de jeux pour enfants, une aire de pique-nique, une halle couverte, etc. En été, des balades nature sont proposées.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Villecartier</t>
+          <t>Forêt_de_Villecartier</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,22 +592,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">La loge des sabotiers
-Cette hutte de bois est une reconstitution de l’habitat traditionnel des ouvriers sabotiers qui ont vécu et travaillé en forêt de Villecartier. Cette population, de 400 habitants lors du recensement de 1840, a occupé une place importante dans l’histoire de Bazouges-la-Pérouse. 
-Le sabotier s’installait avec sa famille sur une coupe de bois et l’exploitait jusqu’à épuisement (18 mois à 2 ans). La loge était ensuite démontée et reconstruite sur une nouvelle coupe. Cette opération, qui prenait environ huit jours, était réalisée par un bûcheron[4].
-L'auge des sabotiers
-Cette auge de bonnes dimensions et taillée dans la masse par les sabotiers nous rappelle que jusqu’au siècle dernier la forêt de Villecartier était peuplée de sabotiers. Elle servait à tremper des outils et aussi à abreuver les animaux domestiques[5].
-Borne milliaire
-Plusieurs voies romaines sillonnaient la région. Les bornes milliaires étaient placées au bord des voies tous les mille pas et guidaient les voyageurs. Une de ces bornes, d’un mètre cinquante de haut environ, se dresse en forêt de Villecartier, au centre d’un carrefour en étoile où convergent sept anciens chemins. L’un d’entre eux, appelé le Chemin montois était emprunté par les pèlerins du Moyen âge qui se rendaient au Mont-Saint-Michel[6].
-La croix de Montaugé
-Cette croix de granit de 1625 de style simple et très élancée de 6 m de haut est composée d’un fût octogonal et d’un soubassement gravé : « Croix érigée par la famille Le Gallais et relevée au siècle dernier ». Elle est dédiée à la mémoire de l’écuyer Estienne Le Gallay, sieur de Challonge, lieutenant des Eaux et Forêts, tué en ce lieu par deux charbonniers. Cette croix est l’une des 130 croix présentes sur la commune[7].
-L'oratoire de Saint-Mathurin
-Les ducs de Bretagne, propriétaires de la forêt, édifièrent à cet endroit un pavillon de chasse et la chapelle Saint-Nicolas, afin d’y faire leurs dévotions pendant les périodes de chasse à courre. Aujourd’hui, cette chapelle n’existe plus.Avec ses ruines a été édifié en 1692, l’oratoire que l’on peut toujours admirer dans le nord de la forêt.
-Il abrite la statue en bois de Saint-Mathurin. Une superstition était attachée à cette statue. Les filles à marier venaient planter une épingle dans les pieds du Saint pour le supplier de leur trouver un mari. Si après avoir accompli le rituel, elles entendaient la fauvette au-dessus de la fontaine, alors leur prière était exaucée dans l’année. En période de sécheresse, on venait également voir le saint pour qu’il fasse tomber la pluie. L’original de la statue ayant été volée, des artistes locaux sculptèrent au XXe siècle, d’après des photographies anciennes, l’actuelle statue[8].
-La colonne des chouans
-En forêt, cette colonne édifiée en 1826, rappelle qu’en ces lieux, Henri Baude de La Vieuville, officier chouan, fut fusillé le lundi de Pâques 1796. Le même jour, le vicomte Bernardin de Sérent tombait lui aussi, au village des Loges, sous les coups des républicains[9].
-La croix Sainte-Anne
-Jean Lelièvre, Prieur de Bazouges édifia à cet emplacement une chapelle en 1662. Elle fut abattue par ordre de la Maîtrise des Eaux et Forêts en 1665. Elle fut remplacée par cette croix érigée en 1869 rappelant le souvenir de Sainte Anne qui se manifesta en ce lieu par plusieurs miracles[10].
+          <t>La loge des sabotiers</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette hutte de bois est une reconstitution de l’habitat traditionnel des ouvriers sabotiers qui ont vécu et travaillé en forêt de Villecartier. Cette population, de 400 habitants lors du recensement de 1840, a occupé une place importante dans l’histoire de Bazouges-la-Pérouse. 
+Le sabotier s’installait avec sa famille sur une coupe de bois et l’exploitait jusqu’à épuisement (18 mois à 2 ans). La loge était ensuite démontée et reconstruite sur une nouvelle coupe. Cette opération, qui prenait environ huit jours, était réalisée par un bûcheron.
 </t>
         </is>
       </c>
@@ -602,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Villecartier</t>
+          <t>Forêt_de_Villecartier</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -617,17 +625,315 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Sites remarquables</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>L'auge des sabotiers</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette auge de bonnes dimensions et taillée dans la masse par les sabotiers nous rappelle que jusqu’au siècle dernier la forêt de Villecartier était peuplée de sabotiers. Elle servait à tremper des outils et aussi à abreuver les animaux domestiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Forêt_de_Villecartier</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_Villecartier</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Sites remarquables</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Borne milliaire</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs voies romaines sillonnaient la région. Les bornes milliaires étaient placées au bord des voies tous les mille pas et guidaient les voyageurs. Une de ces bornes, d’un mètre cinquante de haut environ, se dresse en forêt de Villecartier, au centre d’un carrefour en étoile où convergent sept anciens chemins. L’un d’entre eux, appelé le Chemin montois était emprunté par les pèlerins du Moyen âge qui se rendaient au Mont-Saint-Michel.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Forêt_de_Villecartier</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_Villecartier</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Sites remarquables</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>La croix de Montaugé</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette croix de granit de 1625 de style simple et très élancée de 6 m de haut est composée d’un fût octogonal et d’un soubassement gravé : « Croix érigée par la famille Le Gallais et relevée au siècle dernier ». Elle est dédiée à la mémoire de l’écuyer Estienne Le Gallay, sieur de Challonge, lieutenant des Eaux et Forêts, tué en ce lieu par deux charbonniers. Cette croix est l’une des 130 croix présentes sur la commune.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Forêt_de_Villecartier</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_Villecartier</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Sites remarquables</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>L'oratoire de Saint-Mathurin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les ducs de Bretagne, propriétaires de la forêt, édifièrent à cet endroit un pavillon de chasse et la chapelle Saint-Nicolas, afin d’y faire leurs dévotions pendant les périodes de chasse à courre. Aujourd’hui, cette chapelle n’existe plus.Avec ses ruines a été édifié en 1692, l’oratoire que l’on peut toujours admirer dans le nord de la forêt.
+Il abrite la statue en bois de Saint-Mathurin. Une superstition était attachée à cette statue. Les filles à marier venaient planter une épingle dans les pieds du Saint pour le supplier de leur trouver un mari. Si après avoir accompli le rituel, elles entendaient la fauvette au-dessus de la fontaine, alors leur prière était exaucée dans l’année. En période de sécheresse, on venait également voir le saint pour qu’il fasse tomber la pluie. L’original de la statue ayant été volée, des artistes locaux sculptèrent au XXe siècle, d’après des photographies anciennes, l’actuelle statue.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Forêt_de_Villecartier</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_Villecartier</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Sites remarquables</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>La colonne des chouans</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En forêt, cette colonne édifiée en 1826, rappelle qu’en ces lieux, Henri Baude de La Vieuville, officier chouan, fut fusillé le lundi de Pâques 1796. Le même jour, le vicomte Bernardin de Sérent tombait lui aussi, au village des Loges, sous les coups des républicains.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Forêt_de_Villecartier</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_Villecartier</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Sites remarquables</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>La croix Sainte-Anne</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Lelièvre, Prieur de Bazouges édifia à cet emplacement une chapelle en 1662. Elle fut abattue par ordre de la Maîtrise des Eaux et Forêts en 1665. Elle fut remplacée par cette croix érigée en 1869 rappelant le souvenir de Sainte Anne qui se manifesta en ce lieu par plusieurs miracles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Forêt_de_Villecartier</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_Villecartier</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Arbres remarquables</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chêne des Pétils
-Chêne rouvre remarquable, âgé de 250 ans, d’une circonférence de 4,75 m, mesurant 25 mètres de haut[11].
-Hêtre royal
-Hêtre remarquable, le hêtre royal a un tronc de 3,65 m de circonférence de 30 mètres de haut, et est âgé d'environ 200 ans[12].
-Fayard de la Mothe-Bertier
-C'est aussi un hêtre remarquable de 40 mètres de haut d'un âge estimé à 150 ans[13].
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Chêne des Pétils</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chêne rouvre remarquable, âgé de 250 ans, d’une circonférence de 4,75 m, mesurant 25 mètres de haut.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Forêt_de_Villecartier</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_Villecartier</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Arbres remarquables</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Hêtre royal</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hêtre remarquable, le hêtre royal a un tronc de 3,65 m de circonférence de 30 mètres de haut, et est âgé d'environ 200 ans.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Forêt_de_Villecartier</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_Villecartier</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Arbres remarquables</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Fayard de la Mothe-Bertier</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est aussi un hêtre remarquable de 40 mètres de haut d'un âge estimé à 150 ans.
 </t>
         </is>
       </c>
